--- a/data_manipulation/formatet.xlsx
+++ b/data_manipulation/formatet.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_manipulation/formatet.xlsx
+++ b/data_manipulation/formatet.xlsx
@@ -435,6 +435,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>fischer1_p33_6_hf8_fc6x_4km</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>channal</t>
@@ -461,10 +466,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4376072</v>
+        <v>4377246</v>
       </c>
       <c r="D2" t="n">
-        <v>6191629</v>
+        <v>6136439</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +482,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4379084</v>
+        <v>4361919</v>
       </c>
       <c r="D3" t="n">
-        <v>5293305</v>
+        <v>5299389</v>
       </c>
     </row>
     <row r="4">
@@ -493,10 +498,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4349189</v>
+        <v>4347099</v>
       </c>
       <c r="D4" t="n">
-        <v>5417217</v>
+        <v>5412315</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +514,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4343124</v>
+        <v>4336738</v>
       </c>
       <c r="D5" t="n">
-        <v>5027139</v>
+        <v>5034490</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +530,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>70904</v>
+        <v>72195</v>
       </c>
     </row>
     <row r="7">
@@ -541,10 +546,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>249550</v>
+        <v>251435</v>
       </c>
       <c r="D7" t="n">
-        <v>2366242</v>
+        <v>2943279</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +562,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>278942</v>
+        <v>279674</v>
       </c>
       <c r="D8" t="n">
-        <v>569057</v>
+        <v>549140</v>
       </c>
     </row>
     <row r="9">
@@ -573,10 +578,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>278545</v>
+        <v>278655</v>
       </c>
       <c r="D9" t="n">
-        <v>508521</v>
+        <v>524158</v>
       </c>
     </row>
     <row r="10">
@@ -589,10 +594,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278620</v>
+        <v>278373</v>
       </c>
       <c r="D10" t="n">
-        <v>1155724</v>
+        <v>1125973</v>
       </c>
     </row>
     <row r="11">
@@ -605,7 +610,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1440</v>
+        <v>1465</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
@@ -619,10 +624,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4430020</v>
+        <v>4435565</v>
       </c>
       <c r="D12" t="n">
-        <v>5994774</v>
+        <v>6031830</v>
       </c>
     </row>
     <row r="13">
@@ -635,10 +640,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4230060</v>
+        <v>4434034</v>
       </c>
       <c r="D13" t="n">
-        <v>5405997</v>
+        <v>5256654</v>
       </c>
     </row>
     <row r="14">
@@ -651,10 +656,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4376098</v>
+        <v>4404954</v>
       </c>
       <c r="D14" t="n">
-        <v>5337805</v>
+        <v>5350462</v>
       </c>
     </row>
     <row r="15">
@@ -667,10 +672,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4261385</v>
+        <v>4405068</v>
       </c>
       <c r="D15" t="n">
-        <v>5054295</v>
+        <v>4997783</v>
       </c>
     </row>
     <row r="16">
@@ -683,10 +688,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="D16" t="n">
-        <v>59482</v>
+        <v>64529</v>
       </c>
     </row>
     <row r="17">
@@ -699,10 +704,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>250540</v>
+        <v>251196</v>
       </c>
       <c r="D17" t="n">
-        <v>2291109</v>
+        <v>3162913</v>
       </c>
     </row>
     <row r="18">
@@ -715,10 +720,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>280343</v>
+        <v>282077</v>
       </c>
       <c r="D18" t="n">
-        <v>570785</v>
+        <v>563012</v>
       </c>
     </row>
     <row r="19">
@@ -731,10 +736,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>278204</v>
+        <v>280682</v>
       </c>
       <c r="D19" t="n">
-        <v>490665</v>
+        <v>497782</v>
       </c>
     </row>
     <row r="20">
@@ -747,10 +752,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>279247</v>
+        <v>281224</v>
       </c>
       <c r="D20" t="n">
-        <v>1126001</v>
+        <v>1133810</v>
       </c>
     </row>
     <row r="21">
@@ -763,7 +768,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1945</v>
+        <v>1624</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
@@ -777,10 +782,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4439126</v>
+        <v>4439013</v>
       </c>
       <c r="D22" t="n">
-        <v>6008343</v>
+        <v>6038363</v>
       </c>
     </row>
     <row r="23">
@@ -793,10 +798,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4435164</v>
+        <v>4434066</v>
       </c>
       <c r="D23" t="n">
-        <v>5241118</v>
+        <v>5267593</v>
       </c>
     </row>
     <row r="24">
@@ -809,10 +814,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4408574</v>
+        <v>4410477</v>
       </c>
       <c r="D24" t="n">
-        <v>5317085</v>
+        <v>5355398</v>
       </c>
     </row>
     <row r="25">
@@ -825,10 +830,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4406054</v>
+        <v>4410871</v>
       </c>
       <c r="D25" t="n">
-        <v>5022038</v>
+        <v>5005204</v>
       </c>
     </row>
     <row r="26">
@@ -841,10 +846,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>66425</v>
+        <v>63328</v>
       </c>
     </row>
     <row r="27">
@@ -857,10 +862,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>250420</v>
+        <v>251050</v>
       </c>
       <c r="D27" t="n">
-        <v>2765169</v>
+        <v>3451965</v>
       </c>
     </row>
     <row r="28">
@@ -873,10 +878,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>279257</v>
+        <v>278985</v>
       </c>
       <c r="D28" t="n">
-        <v>560212</v>
+        <v>587439</v>
       </c>
     </row>
     <row r="29">
@@ -889,10 +894,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>278752</v>
+        <v>278255</v>
       </c>
       <c r="D29" t="n">
-        <v>478515</v>
+        <v>475903</v>
       </c>
     </row>
     <row r="30">
@@ -905,10 +910,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>278315</v>
+        <v>278589</v>
       </c>
       <c r="D30" t="n">
-        <v>1084840</v>
+        <v>1150929</v>
       </c>
     </row>
     <row r="31">
@@ -921,7 +926,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1335</v>
+        <v>1675</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
@@ -935,10 +940,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4436460</v>
+        <v>4437798</v>
       </c>
       <c r="D32" t="n">
-        <v>5991120</v>
+        <v>5995750</v>
       </c>
     </row>
     <row r="33">
@@ -951,10 +956,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4435182</v>
+        <v>4429988</v>
       </c>
       <c r="D33" t="n">
-        <v>5272877</v>
+        <v>5267777</v>
       </c>
     </row>
     <row r="34">
@@ -967,10 +972,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4409934</v>
+        <v>4408666</v>
       </c>
       <c r="D34" t="n">
-        <v>5339268</v>
+        <v>5388318</v>
       </c>
     </row>
     <row r="35">
@@ -983,10 +988,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4407981</v>
+        <v>4399722</v>
       </c>
       <c r="D35" t="n">
-        <v>5029914</v>
+        <v>5036583</v>
       </c>
     </row>
     <row r="36">
@@ -999,10 +1004,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="D36" t="n">
-        <v>62905</v>
+        <v>68425</v>
       </c>
     </row>
     <row r="37">
@@ -1015,10 +1020,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>249647</v>
+        <v>251678</v>
       </c>
       <c r="D37" t="n">
-        <v>2856022</v>
+        <v>3840016</v>
       </c>
     </row>
     <row r="38">
@@ -1031,10 +1036,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>282105</v>
+        <v>281517</v>
       </c>
       <c r="D38" t="n">
-        <v>560815</v>
+        <v>569765</v>
       </c>
     </row>
     <row r="39">
@@ -1047,10 +1052,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>281435</v>
+        <v>281055</v>
       </c>
       <c r="D39" t="n">
-        <v>490615</v>
+        <v>492516</v>
       </c>
     </row>
     <row r="40">
@@ -1063,10 +1068,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>282563</v>
+        <v>281601</v>
       </c>
       <c r="D40" t="n">
-        <v>1105815</v>
+        <v>1146280</v>
       </c>
     </row>
     <row r="41">
@@ -1079,7 +1084,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1478</v>
+        <v>1362</v>
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
@@ -1093,10 +1098,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4434636</v>
+        <v>4433192</v>
       </c>
       <c r="D42" t="n">
-        <v>6056596</v>
+        <v>6011185</v>
       </c>
     </row>
     <row r="43">
@@ -1109,10 +1114,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4435836</v>
+        <v>4433964</v>
       </c>
       <c r="D43" t="n">
-        <v>5305134</v>
+        <v>5269463</v>
       </c>
     </row>
     <row r="44">
@@ -1125,10 +1130,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4406785</v>
+        <v>4411522</v>
       </c>
       <c r="D44" t="n">
-        <v>5330628</v>
+        <v>5370481</v>
       </c>
     </row>
     <row r="45">
@@ -1141,10 +1146,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4414170</v>
+        <v>4409930</v>
       </c>
       <c r="D45" t="n">
-        <v>5028092</v>
+        <v>5031298</v>
       </c>
     </row>
     <row r="46">
@@ -1157,10 +1162,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D46" t="n">
-        <v>67694</v>
+        <v>65171</v>
       </c>
     </row>
     <row r="47">
@@ -1173,10 +1178,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>249603</v>
+        <v>251877</v>
       </c>
       <c r="D47" t="n">
-        <v>3235413</v>
+        <v>4054735</v>
       </c>
     </row>
     <row r="48">
@@ -1189,10 +1194,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>279159</v>
+        <v>279455</v>
       </c>
       <c r="D48" t="n">
-        <v>570795</v>
+        <v>551347</v>
       </c>
     </row>
     <row r="49">
@@ -1205,10 +1210,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>278718</v>
+        <v>278076</v>
       </c>
       <c r="D49" t="n">
-        <v>493472</v>
+        <v>476632</v>
       </c>
     </row>
     <row r="50">
@@ -1221,10 +1226,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>278112</v>
+        <v>278205</v>
       </c>
       <c r="D50" t="n">
-        <v>1118478</v>
+        <v>1028484</v>
       </c>
     </row>
     <row r="51">
@@ -1237,7 +1242,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1721</v>
+        <v>1469</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
@@ -1251,10 +1256,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4433521</v>
+        <v>4435283</v>
       </c>
       <c r="D52" t="n">
-        <v>6048706</v>
+        <v>6132682</v>
       </c>
     </row>
     <row r="53">
@@ -1267,10 +1272,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4434195</v>
+        <v>4437021</v>
       </c>
       <c r="D53" t="n">
-        <v>5325540</v>
+        <v>5354306</v>
       </c>
     </row>
     <row r="54">
@@ -1283,10 +1288,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4404203</v>
+        <v>4410376</v>
       </c>
       <c r="D54" t="n">
-        <v>5397360</v>
+        <v>5392048</v>
       </c>
     </row>
     <row r="55">
@@ -1299,10 +1304,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4400718</v>
+        <v>4409488</v>
       </c>
       <c r="D55" t="n">
-        <v>5061812</v>
+        <v>5040944</v>
       </c>
     </row>
     <row r="56">
@@ -1315,10 +1320,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>66062</v>
+        <v>66735</v>
       </c>
     </row>
     <row r="57">
@@ -1331,10 +1336,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>250968</v>
+        <v>252016</v>
       </c>
       <c r="D57" t="n">
-        <v>3236918</v>
+        <v>4667405</v>
       </c>
     </row>
     <row r="58">
@@ -1347,10 +1352,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>280786</v>
+        <v>282139</v>
       </c>
       <c r="D58" t="n">
-        <v>568980</v>
+        <v>607727</v>
       </c>
     </row>
     <row r="59">
@@ -1363,10 +1368,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>280426</v>
+        <v>282523</v>
       </c>
       <c r="D59" t="n">
-        <v>482381</v>
+        <v>506986</v>
       </c>
     </row>
     <row r="60">
@@ -1379,10 +1384,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>280511</v>
+        <v>282111</v>
       </c>
       <c r="D60" t="n">
-        <v>1113192</v>
+        <v>1234028</v>
       </c>
     </row>
     <row r="61">
@@ -1395,7 +1400,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1483</v>
+        <v>1845</v>
       </c>
       <c r="D61" t="inlineStr"/>
     </row>
@@ -1409,10 +1414,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4436303</v>
+        <v>4438139</v>
       </c>
       <c r="D62" t="n">
-        <v>6070920</v>
+        <v>6050006</v>
       </c>
     </row>
     <row r="63">
@@ -1425,10 +1430,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4435453</v>
+        <v>4435860</v>
       </c>
       <c r="D63" t="n">
-        <v>5319978</v>
+        <v>5283897</v>
       </c>
     </row>
     <row r="64">
@@ -1441,10 +1446,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4409728</v>
+        <v>4411458</v>
       </c>
       <c r="D64" t="n">
-        <v>5359129</v>
+        <v>5356375</v>
       </c>
     </row>
     <row r="65">
@@ -1457,10 +1462,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4406195</v>
+        <v>4407754</v>
       </c>
       <c r="D65" t="n">
-        <v>5029249</v>
+        <v>5015439</v>
       </c>
     </row>
     <row r="66">
@@ -1473,10 +1478,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>418</v>
+        <v>152</v>
       </c>
       <c r="D66" t="n">
-        <v>65966</v>
+        <v>67752</v>
       </c>
     </row>
     <row r="67">
@@ -1489,10 +1494,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>252780</v>
+        <v>253669</v>
       </c>
       <c r="D67" t="n">
-        <v>3766713</v>
+        <v>4895778</v>
       </c>
     </row>
     <row r="68">
@@ -1505,10 +1510,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>279054</v>
+        <v>279711</v>
       </c>
       <c r="D68" t="n">
-        <v>574509</v>
+        <v>551256</v>
       </c>
     </row>
     <row r="69">
@@ -1521,10 +1526,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>278268</v>
+        <v>277806</v>
       </c>
       <c r="D69" t="n">
-        <v>491657</v>
+        <v>495123</v>
       </c>
     </row>
     <row r="70">
@@ -1537,10 +1542,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>277753</v>
+        <v>278703</v>
       </c>
       <c r="D70" t="n">
-        <v>1107324</v>
+        <v>1076408</v>
       </c>
     </row>
     <row r="71">
@@ -1553,7 +1558,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1734</v>
+        <v>1651</v>
       </c>
       <c r="D71" t="inlineStr"/>
     </row>
@@ -1567,10 +1572,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4433694</v>
+        <v>4436393</v>
       </c>
       <c r="D72" t="n">
-        <v>6103850</v>
+        <v>6063611</v>
       </c>
     </row>
     <row r="73">
@@ -1583,10 +1588,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4429832</v>
+        <v>4438290</v>
       </c>
       <c r="D73" t="n">
-        <v>5337824</v>
+        <v>5298826</v>
       </c>
     </row>
     <row r="74">
@@ -1599,10 +1604,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4403066</v>
+        <v>4408989</v>
       </c>
       <c r="D74" t="n">
-        <v>5409914</v>
+        <v>5344126</v>
       </c>
     </row>
     <row r="75">
@@ -1615,10 +1620,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4404093</v>
+        <v>4407144</v>
       </c>
       <c r="D75" t="n">
-        <v>5068786</v>
+        <v>4999112</v>
       </c>
     </row>
     <row r="76">
@@ -1631,10 +1636,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="D76" t="n">
-        <v>67934</v>
+        <v>61468</v>
       </c>
     </row>
     <row r="77">
@@ -1647,10 +1652,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>253454</v>
+        <v>254288</v>
       </c>
       <c r="D77" t="n">
-        <v>3977878</v>
+        <v>4911250</v>
       </c>
     </row>
     <row r="78">
@@ -1663,10 +1668,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>283880</v>
+        <v>280891</v>
       </c>
       <c r="D78" t="n">
-        <v>588370</v>
+        <v>580016</v>
       </c>
     </row>
     <row r="79">
@@ -1679,10 +1684,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>283675</v>
+        <v>280271</v>
       </c>
       <c r="D79" t="n">
-        <v>508819</v>
+        <v>490043</v>
       </c>
     </row>
     <row r="80">
@@ -1695,10 +1700,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>283993</v>
+        <v>279964</v>
       </c>
       <c r="D80" t="n">
-        <v>1197975</v>
+        <v>1156093</v>
       </c>
     </row>
     <row r="81">
@@ -1711,7 +1716,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1547</v>
+        <v>1849</v>
       </c>
       <c r="D81" t="inlineStr"/>
     </row>
@@ -1725,10 +1730,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4437527</v>
+        <v>4437314</v>
       </c>
       <c r="D82" t="n">
-        <v>6058287</v>
+        <v>6019916</v>
       </c>
     </row>
     <row r="83">
@@ -1741,10 +1746,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4435631</v>
+        <v>4434380</v>
       </c>
       <c r="D83" t="n">
-        <v>5311969</v>
+        <v>5273410</v>
       </c>
     </row>
     <row r="84">
@@ -1757,10 +1762,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4404628</v>
+        <v>4405357</v>
       </c>
       <c r="D84" t="n">
-        <v>5351783</v>
+        <v>5343789</v>
       </c>
     </row>
     <row r="85">
@@ -1773,10 +1778,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4413554</v>
+        <v>4406739</v>
       </c>
       <c r="D85" t="n">
-        <v>5030668</v>
+        <v>5052507</v>
       </c>
     </row>
     <row r="86">
@@ -1789,10 +1794,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>653</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>70259</v>
+        <v>66994</v>
       </c>
     </row>
     <row r="87">
@@ -1805,10 +1810,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>252430</v>
+        <v>254944</v>
       </c>
       <c r="D87" t="n">
-        <v>4263246</v>
+        <v>5103610</v>
       </c>
     </row>
     <row r="88">
@@ -1821,10 +1826,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>279077</v>
+        <v>279189</v>
       </c>
       <c r="D88" t="n">
-        <v>535476</v>
+        <v>561041</v>
       </c>
     </row>
     <row r="89">
@@ -1837,10 +1842,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>278768</v>
+        <v>278446</v>
       </c>
       <c r="D89" t="n">
-        <v>490870</v>
+        <v>478961</v>
       </c>
     </row>
     <row r="90">
@@ -1853,10 +1858,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>278602</v>
+        <v>278729</v>
       </c>
       <c r="D90" t="n">
-        <v>984168</v>
+        <v>1058773</v>
       </c>
     </row>
     <row r="91">
@@ -1869,7 +1874,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1735</v>
+        <v>1301</v>
       </c>
       <c r="D91" t="inlineStr"/>
     </row>
@@ -1883,10 +1888,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4434591</v>
+        <v>4436814</v>
       </c>
       <c r="D92" t="n">
-        <v>6010012</v>
+        <v>6044156</v>
       </c>
     </row>
     <row r="93">
@@ -1899,10 +1904,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4434477</v>
+        <v>4431647</v>
       </c>
       <c r="D93" t="n">
-        <v>5310362</v>
+        <v>5294710</v>
       </c>
     </row>
     <row r="94">
@@ -1915,10 +1920,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4407935</v>
+        <v>4410015</v>
       </c>
       <c r="D94" t="n">
-        <v>5346572</v>
+        <v>5319107</v>
       </c>
     </row>
     <row r="95">
@@ -1931,10 +1936,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4405416</v>
+        <v>4407096</v>
       </c>
       <c r="D95" t="n">
-        <v>5046328</v>
+        <v>5006895</v>
       </c>
     </row>
     <row r="96">
@@ -1947,10 +1952,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="D96" t="n">
-        <v>65822</v>
+        <v>69651</v>
       </c>
     </row>
     <row r="97">
@@ -1963,10 +1968,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>251707</v>
+        <v>255975</v>
       </c>
       <c r="D97" t="n">
-        <v>4337618</v>
+        <v>5602001</v>
       </c>
     </row>
     <row r="98">
@@ -1979,10 +1984,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>279193</v>
+        <v>279693</v>
       </c>
       <c r="D98" t="n">
-        <v>549337</v>
+        <v>568921</v>
       </c>
     </row>
     <row r="99">
@@ -1995,10 +2000,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>278318</v>
+        <v>277886</v>
       </c>
       <c r="D99" t="n">
-        <v>485481</v>
+        <v>492835</v>
       </c>
     </row>
     <row r="100">
@@ -2011,10 +2016,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>278447</v>
+        <v>278289</v>
       </c>
       <c r="D100" t="n">
-        <v>1085569</v>
+        <v>1129982</v>
       </c>
     </row>
     <row r="101">
@@ -2027,7 +2032,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1549</v>
+        <v>1799</v>
       </c>
       <c r="D101" t="inlineStr"/>
     </row>
